--- a/data/trans_camb/P38A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Estudios-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/P38A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 1,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 2,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 2,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 1,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 1,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 1,54</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,29%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 1,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,22; 3,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 2,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 1,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 1,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 1,67</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 2,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,24; 0,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 3,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 2,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 2,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; 0,7</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,89%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 2,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,23; 0,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 4,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 2,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 2,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,0; 0,84</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,9; -1,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 2,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,04; 3,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 4,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,29; -0,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 2,04</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,69%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,75; -1,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,22; 2,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; 4,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 5,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; -0,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 2,35</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 0,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,73; -0,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 1,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 0,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; -0,56</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,35%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,15; 0,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,04; -1,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 1,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 0,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 0,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,97; -0,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Estudios-trans_camb.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,8</t>
+          <t>-3,51; 3,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,67</t>
+          <t>-1,98; 1,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,54</t>
+          <t>-1,99; 1,72</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-0,03%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,09</t>
+          <t>-3,82; 3,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,79</t>
+          <t>-2,11; 2,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,67</t>
+          <t>-2,11; 1,87</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-9,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-5,08</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 0,1</t>
+          <t>-28,58; 0,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,5</t>
+          <t>-9,32; 3,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 0,7</t>
+          <t>-19,81; 0,62</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-11,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>-6,07%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 0,12</t>
+          <t>-35,03; 0,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,93</t>
+          <t>-10,85; 4,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 0,84</t>
+          <t>-23,65; 0,75</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 2,55</t>
+          <t>-6,34; 2,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,78</t>
+          <t>-2,89; 5,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 2,04</t>
+          <t>-3,46; 2,28</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-0,45%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 2,88</t>
+          <t>-6,9; 2,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,49</t>
+          <t>-3,11; 5,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,35</t>
+          <t>-3,77; 2,6</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-4,41</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -0,97</t>
+          <t>-24,2; -1,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 0,64</t>
+          <t>-8,32; 1,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; -0,56</t>
+          <t>-15,58; -0,52</t>
         </is>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,82%</t>
+          <t>-8,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-5,04%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,04; -1,15</t>
+          <t>-28,42; -1,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,72</t>
+          <t>-9,26; 1,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,64</t>
+          <t>-17,72; -0,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,7</t>
+          <t>-3,81; 1,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,11</t>
+          <t>-3,79; 2,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,28</t>
+          <t>-1,53; 2,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,92</t>
+          <t>-2,22; 2,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,28</t>
+          <t>-2,12; 1,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,72</t>
+          <t>-1,94; 1,61</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,88</t>
+          <t>-4,16; 2,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,44</t>
+          <t>-4,08; 3,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 2,46</t>
+          <t>-1,61; 2,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,06</t>
+          <t>-2,33; 2,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,4</t>
+          <t>-2,28; 1,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,87</t>
+          <t>-2,08; 1,75</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 2,08</t>
+          <t>-2,71; 2,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 0,01</t>
+          <t>-31,45; -0,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,66</t>
+          <t>-0,68; 3,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 3,48</t>
+          <t>-10,46; 3,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,41</t>
+          <t>-0,71; 2,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 0,62</t>
+          <t>-16,95; 0,97</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,64</t>
+          <t>-3,33; 2,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 0,01</t>
+          <t>-38,28; -0,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,32</t>
+          <t>-0,77; 4,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 4,07</t>
+          <t>-12,09; 4,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,91</t>
+          <t>-0,84; 2,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 0,75</t>
+          <t>-20,32; 1,17</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -1,12</t>
+          <t>-9,92; -1,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,4</t>
+          <t>-6,74; 2,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 3,75</t>
+          <t>-5,44; 2,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,14</t>
+          <t>-2,57; 5,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -0,49</t>
+          <t>-6,17; -0,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,28</t>
+          <t>-3,74; 2,24</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -1,26</t>
+          <t>-10,82; -1,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 2,71</t>
+          <t>-7,54; 2,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 4,32</t>
+          <t>-5,99; 3,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,91</t>
+          <t>-2,79; 5,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,96; -0,55</t>
+          <t>-6,8; -0,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,6</t>
+          <t>-4,12; 2,54</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,03</t>
+          <t>-3,38; 0,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,2; -1,02</t>
+          <t>-26,22; -1,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,65</t>
+          <t>-1,19; 1,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 1,07</t>
+          <t>-6,86; 1,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 0,43</t>
+          <t>-1,84; 0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -0,52</t>
+          <t>-15,72; -0,63</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,04</t>
+          <t>-3,94; 0,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,42; -1,23</t>
+          <t>-30,25; -1,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,85</t>
+          <t>-1,32; 2,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 1,2</t>
+          <t>-7,69; 1,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,49</t>
+          <t>-2,08; 0,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -0,63</t>
+          <t>-17,9; -0,71</t>
         </is>
       </c>
     </row>
